--- a/t11.3.xlsx
+++ b/t11.3.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wagner Nobrega\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{58546D8C-83B2-4AC9-902C-D527534994F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A572955F-D2D8-4632-AA45-BC0849EAD3A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="t11.3" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -905,7 +905,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -937,7 +937,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="1">
-        <v>352.27</v>
+        <v>713.61269765229713</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -951,7 +951,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="1">
-        <v>106.73</v>
+        <v>203.00659150402649</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -965,7 +965,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="1">
-        <v>413.15</v>
+        <v>742.48438108958874</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -979,7 +979,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="1">
-        <v>-182.63</v>
+        <v>-309.89310573755239</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -993,7 +993,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="1">
-        <v>-87.44</v>
+        <v>-139.43693368736851</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1007,7 +1007,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="1">
-        <v>419.75</v>
+        <v>604.80669048800712</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1021,7 +1021,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="1">
-        <v>144.43</v>
+        <v>195.79387706514225</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1035,7 +1035,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="1">
-        <v>-453.6</v>
+        <v>-597.30928839042713</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1049,7 +1049,7 @@
         <v>4</v>
       </c>
       <c r="D10" s="1">
-        <v>405.72</v>
+        <v>514.97130633394818</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1063,7 +1063,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="1">
-        <v>-144.11000000000001</v>
+        <v>-175.36414828250545</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1077,7 +1077,7 @@
         <v>4</v>
       </c>
       <c r="D12" s="1">
-        <v>614.76</v>
+        <v>715.75346652063865</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1091,7 +1091,7 @@
         <v>4</v>
       </c>
       <c r="D13" s="1">
-        <v>-48.34</v>
+        <v>-51.136513911673774</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1119,7 +1119,7 @@
         <v>4</v>
       </c>
       <c r="D15" s="1">
-        <v>152.6</v>
+        <v>309.13020598330979</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1133,7 +1133,7 @@
         <v>4</v>
       </c>
       <c r="D16" s="1">
-        <v>126.4</v>
+        <v>240.42006152074342</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1147,7 +1147,7 @@
         <v>4</v>
       </c>
       <c r="D17" s="1">
-        <v>198.09</v>
+        <v>355.99353999766828</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1161,7 +1161,7 @@
         <v>4</v>
       </c>
       <c r="D18" s="1">
-        <v>190.46</v>
+        <v>323.17932934772068</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1175,7 +1175,7 @@
         <v>4</v>
       </c>
       <c r="D19" s="1">
-        <v>188.4</v>
+        <v>300.43364943618747</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1189,7 +1189,7 @@
         <v>4</v>
       </c>
       <c r="D20" s="1">
-        <v>258.06</v>
+        <v>371.8318393027638</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1203,7 +1203,7 @@
         <v>4</v>
       </c>
       <c r="D21" s="1">
-        <v>241.15</v>
+        <v>326.91056881713666</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1217,7 +1217,7 @@
         <v>4</v>
       </c>
       <c r="D22" s="1">
-        <v>175.15</v>
+        <v>230.6409212116034</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1231,7 +1231,7 @@
         <v>4</v>
       </c>
       <c r="D23" s="1">
-        <v>189.69</v>
+        <v>240.76926722490049</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1245,7 +1245,7 @@
         <v>4</v>
       </c>
       <c r="D24" s="1">
-        <v>181.4</v>
+        <v>220.74149259903191</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1259,7 +1259,7 @@
         <v>4</v>
       </c>
       <c r="D25" s="1">
-        <v>112.19</v>
+        <v>130.62069979984133</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1273,7 +1273,7 @@
         <v>4</v>
       </c>
       <c r="D26" s="1">
-        <v>82.68</v>
+        <v>87.463114816243035</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1301,7 +1301,7 @@
         <v>4</v>
       </c>
       <c r="D28" s="1">
-        <v>1.24</v>
+        <v>2.5119361429836449</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1315,7 +1315,7 @@
         <v>4</v>
       </c>
       <c r="D29" s="1">
-        <v>225.87</v>
+        <v>429.61771594691703</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1329,7 +1329,7 @@
         <v>4</v>
       </c>
       <c r="D30" s="1">
-        <v>48.13</v>
+        <v>86.495881064605868</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1343,7 +1343,7 @@
         <v>4</v>
       </c>
       <c r="D31" s="1">
-        <v>1.38</v>
+        <v>2.3416332799530317</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1357,7 +1357,7 @@
         <v>4</v>
       </c>
       <c r="D32" s="1">
-        <v>231.97</v>
+        <v>369.91291751439701</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1371,7 +1371,7 @@
         <v>4</v>
       </c>
       <c r="D33" s="1">
-        <v>413.35</v>
+        <v>595.58509949545623</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1385,7 +1385,7 @@
         <v>4</v>
       </c>
       <c r="D34" s="1">
-        <v>849.39</v>
+        <v>1151.4599545825738</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1399,7 +1399,7 @@
         <v>4</v>
       </c>
       <c r="D35" s="1">
-        <v>-178.31</v>
+        <v>-234.80207057516984</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1413,7 +1413,7 @@
         <v>4</v>
       </c>
       <c r="D36" s="1">
-        <v>-94.8</v>
+        <v>-120.32751612062083</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1427,7 +1427,7 @@
         <v>4</v>
       </c>
       <c r="D37" s="1">
-        <v>-1848.11</v>
+        <v>-2248.9226013627167</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1441,7 +1441,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="1">
-        <v>958.8</v>
+        <v>1116.31274594962</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1455,7 +1455,7 @@
         <v>4</v>
       </c>
       <c r="D39" s="1">
-        <v>252.56</v>
+        <v>267.17083064816569</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1483,7 +1483,7 @@
         <v>9</v>
       </c>
       <c r="D41" s="1">
-        <v>351.58</v>
+        <v>712.21492673402395</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1497,7 +1497,7 @@
         <v>9</v>
       </c>
       <c r="D42" s="1">
-        <v>64.010000000000005</v>
+        <v>121.75069729385118</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1511,7 +1511,7 @@
         <v>9</v>
       </c>
       <c r="D43" s="1">
-        <v>327.81</v>
+        <v>589.11728177412112</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1525,7 +1525,7 @@
         <v>9</v>
       </c>
       <c r="D44" s="1">
-        <v>-141</v>
+        <v>-239.25383512563593</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1539,7 +1539,7 @@
         <v>9</v>
       </c>
       <c r="D45" s="1">
-        <v>-114.01</v>
+        <v>-181.80700834511535</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1553,7 +1553,7 @@
         <v>9</v>
       </c>
       <c r="D46" s="1">
-        <v>419.67</v>
+        <v>604.69142060060028</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1567,7 +1567,7 @@
         <v>9</v>
       </c>
       <c r="D47" s="1">
-        <v>215.37</v>
+        <v>291.96238526289335</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1581,7 +1581,7 @@
         <v>9</v>
       </c>
       <c r="D48" s="1">
-        <v>-435.22</v>
+        <v>-573.10614747196132</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1595,7 +1595,7 @@
         <v>9</v>
       </c>
       <c r="D49" s="1">
-        <v>537.61</v>
+        <v>682.37632849796375</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1609,7 +1609,7 @@
         <v>9</v>
       </c>
       <c r="D50" s="1">
-        <v>-75.680000000000007</v>
+        <v>-92.093253362154002</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1623,7 +1623,7 @@
         <v>9</v>
       </c>
       <c r="D51" s="1">
-        <v>555.96</v>
+        <v>647.29373616828411</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1637,7 +1637,7 @@
         <v>9</v>
       </c>
       <c r="D52" s="1">
-        <v>-40.6</v>
+        <v>-42.94874772060313</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1651,7 +1651,7 @@
         <v>9</v>
       </c>
       <c r="D53" s="1">
-        <v>105.19</v>
+        <v>105.19000000000001</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1665,7 +1665,7 @@
         <v>9</v>
       </c>
       <c r="D54" s="1">
-        <v>157.41999999999999</v>
+        <v>318.8943448616817</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -1679,7 +1679,7 @@
         <v>9</v>
       </c>
       <c r="D55" s="1">
-        <v>131.68</v>
+        <v>250.46292485009096</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -1693,7 +1693,7 @@
         <v>9</v>
       </c>
       <c r="D56" s="1">
-        <v>200.58</v>
+        <v>360.46839443047259</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -1707,7 +1707,7 @@
         <v>9</v>
       </c>
       <c r="D57" s="1">
-        <v>190.61</v>
+        <v>323.43385470423732</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -1721,7 +1721,7 @@
         <v>9</v>
       </c>
       <c r="D58" s="1">
-        <v>188.27</v>
+        <v>300.22634383944273</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -1735,7 +1735,7 @@
         <v>9</v>
       </c>
       <c r="D59" s="1">
-        <v>259.98</v>
+        <v>374.59831660052913</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -1749,7 +1749,7 @@
         <v>9</v>
       </c>
       <c r="D60" s="1">
-        <v>243.49</v>
+        <v>330.0827468433946</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -1763,7 +1763,7 @@
         <v>9</v>
       </c>
       <c r="D61" s="1">
-        <v>183.2</v>
+        <v>241.24131753334709</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -1777,7 +1777,7 @@
         <v>9</v>
       </c>
       <c r="D62" s="1">
-        <v>196.61</v>
+        <v>249.55266819066733</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -1791,7 +1791,7 @@
         <v>9</v>
       </c>
       <c r="D63" s="1">
-        <v>186.61</v>
+        <v>227.08142190686519</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -1805,7 +1805,7 @@
         <v>9</v>
       </c>
       <c r="D64" s="1">
-        <v>116.44</v>
+        <v>135.5688945957173</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -1819,7 +1819,7 @@
         <v>9</v>
       </c>
       <c r="D65" s="1">
-        <v>87.35</v>
+        <v>92.403278655041447</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -1847,7 +1847,7 @@
         <v>9</v>
       </c>
       <c r="D67" s="1">
-        <v>71.489999999999995</v>
+        <v>144.82122166282318</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -1861,7 +1861,7 @@
         <v>9</v>
       </c>
       <c r="D68" s="1">
-        <v>226.49</v>
+        <v>430.7969915651359</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -1875,7 +1875,7 @@
         <v>9</v>
       </c>
       <c r="D69" s="1">
-        <v>45.25</v>
+        <v>81.320145817025036</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -1889,7 +1889,7 @@
         <v>9</v>
       </c>
       <c r="D70" s="1">
-        <v>1.66</v>
+        <v>2.8167472787840819</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -1903,7 +1903,7 @@
         <v>9</v>
       </c>
       <c r="D71" s="1">
-        <v>135.24</v>
+        <v>215.66160695196385</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -1917,7 +1917,7 @@
         <v>9</v>
       </c>
       <c r="D72" s="1">
-        <v>382.29</v>
+        <v>550.83156570973256</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -1931,7 +1931,7 @@
         <v>9</v>
       </c>
       <c r="D73" s="1">
-        <v>855.53</v>
+        <v>1159.783532822413</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -1945,7 +1945,7 @@
         <v>9</v>
       </c>
       <c r="D74" s="1">
-        <v>-371.33</v>
+        <v>-488.9745548016254</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -1959,7 +1959,7 @@
         <v>9</v>
       </c>
       <c r="D75" s="1">
-        <v>-113.76</v>
+        <v>-144.393019344745</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -1973,7 +1973,7 @@
         <v>9</v>
       </c>
       <c r="D76" s="1">
-        <v>-1698.31</v>
+        <v>-2066.6344227996797</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -1987,7 +1987,7 @@
         <v>9</v>
       </c>
       <c r="D77" s="1">
-        <v>942.86</v>
+        <v>1097.754104762264</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -2001,7 +2001,7 @@
         <v>9</v>
       </c>
       <c r="D78" s="1">
-        <v>74.36</v>
+        <v>78.661795086306626</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -2015,7 +2015,7 @@
         <v>9</v>
       </c>
       <c r="D79" s="1">
-        <v>-123.84</v>
+        <v>-123.83999999999999</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -2029,7 +2029,7 @@
         <v>11</v>
       </c>
       <c r="D80" s="1">
-        <v>0.62</v>
+        <v>1.2559680714918224</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -2043,7 +2043,7 @@
         <v>11</v>
       </c>
       <c r="D81" s="1">
-        <v>-2.5</v>
+        <v>-4.7551436218501468</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -2057,7 +2057,7 @@
         <v>11</v>
       </c>
       <c r="D82" s="1">
-        <v>34.020000000000003</v>
+        <v>61.138372612048443</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -2071,7 +2071,7 @@
         <v>11</v>
       </c>
       <c r="D83" s="1">
-        <v>-36.26</v>
+        <v>-61.527262848620964</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -2085,7 +2085,7 @@
         <v>11</v>
       </c>
       <c r="D84" s="1">
-        <v>23.07</v>
+        <v>36.788770130004487</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -2099,7 +2099,7 @@
         <v>11</v>
       </c>
       <c r="D85" s="1">
-        <v>17.72</v>
+        <v>25.532280060625332</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -2113,7 +2113,7 @@
         <v>11</v>
       </c>
       <c r="D86" s="1">
-        <v>-29.14</v>
+        <v>-39.503105848357301</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -2127,7 +2127,7 @@
         <v>11</v>
       </c>
       <c r="D87" s="1">
-        <v>-36.090000000000003</v>
+        <v>-47.524012826301842</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -2141,7 +2141,7 @@
         <v>11</v>
       </c>
       <c r="D88" s="1">
-        <v>-77.69</v>
+        <v>-98.610176449483461</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -2155,7 +2155,7 @@
         <v>11</v>
       </c>
       <c r="D89" s="1">
-        <v>-79.14</v>
+        <v>-96.303647873690096</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -2169,7 +2169,7 @@
         <v>11</v>
       </c>
       <c r="D90" s="1">
-        <v>114.66</v>
+        <v>133.49647418709162</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -2183,7 +2183,7 @@
         <v>11</v>
       </c>
       <c r="D91" s="1">
-        <v>19.809999999999999</v>
+        <v>20.956026905052905</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -2211,7 +2211,7 @@
         <v>11</v>
       </c>
       <c r="D93" s="1">
-        <v>-1.04</v>
+        <v>-2.1067851521798313</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -2225,7 +2225,7 @@
         <v>11</v>
       </c>
       <c r="D94" s="1">
-        <v>-2.94</v>
+        <v>-5.5920488992957731</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -2239,7 +2239,7 @@
         <v>11</v>
       </c>
       <c r="D95" s="1">
-        <v>-1.55</v>
+        <v>-2.7855519561632884</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -2253,7 +2253,7 @@
         <v>11</v>
       </c>
       <c r="D96" s="1">
-        <v>-0.91</v>
+        <v>-1.5441204962009125</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -2267,7 +2267,7 @@
         <v>11</v>
       </c>
       <c r="D97" s="1">
-        <v>-1.19</v>
+        <v>-1.8976435394323941</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -2281,7 +2281,7 @@
         <v>11</v>
       </c>
       <c r="D98" s="1">
-        <v>-0.28000000000000003</v>
+        <v>-0.40344460592410242</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -2295,7 +2295,7 @@
         <v>11</v>
       </c>
       <c r="D99" s="1">
-        <v>-2.99</v>
+        <v>-4.053338589107355</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -2309,7 +2309,7 @@
         <v>11</v>
       </c>
       <c r="D100" s="1">
-        <v>-2.08</v>
+        <v>-2.7389843912083078</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -2323,7 +2323,7 @@
         <v>11</v>
       </c>
       <c r="D101" s="1">
-        <v>-1.71</v>
+        <v>-2.1704646895175275</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -2337,7 +2337,7 @@
         <v>11</v>
       </c>
       <c r="D102" s="1">
-        <v>-1.29</v>
+        <v>-1.569771364127625</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -2351,7 +2351,7 @@
         <v>11</v>
       </c>
       <c r="D103" s="1">
-        <v>1.62</v>
+        <v>1.8861354280750777</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -2365,7 +2365,7 @@
         <v>11</v>
       </c>
       <c r="D104" s="1">
-        <v>4.8099999999999996</v>
+        <v>5.0882629688694836</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -2393,7 +2393,7 @@
         <v>11</v>
       </c>
       <c r="D106" s="1">
-        <v>-76.349999999999994</v>
+        <v>-154.66639073935585</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -2407,7 +2407,7 @@
         <v>11</v>
       </c>
       <c r="D107" s="1">
-        <v>0.87</v>
+        <v>1.6547899804038511</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -2421,7 +2421,7 @@
         <v>11</v>
       </c>
       <c r="D108" s="1">
-        <v>0.89</v>
+        <v>1.5994459619260173</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -2435,7 +2435,7 @@
         <v>11</v>
       </c>
       <c r="D109" s="1">
-        <v>-0.28000000000000003</v>
+        <v>-0.4751139988310501</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -2449,7 +2449,7 @@
         <v>11</v>
       </c>
       <c r="D110" s="1">
-        <v>79.48</v>
+        <v>126.74345253284596</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -2463,7 +2463,7 @@
         <v>11</v>
       </c>
       <c r="D111" s="1">
-        <v>30.97</v>
+        <v>44.623855162390896</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -2477,7 +2477,7 @@
         <v>11</v>
       </c>
       <c r="D112" s="1">
-        <v>-10.039999999999999</v>
+        <v>-13.610541616935731</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -2491,7 +2491,7 @@
         <v>11</v>
       </c>
       <c r="D113" s="1">
-        <v>166.95</v>
+        <v>219.84300197703215</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -2505,7 +2505,7 @@
         <v>11</v>
       </c>
       <c r="D114" s="1">
-        <v>18.96</v>
+        <v>24.065503224124168</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -2519,7 +2519,7 @@
         <v>11</v>
       </c>
       <c r="D115" s="1">
-        <v>-131.66999999999999</v>
+        <v>-160.22619807339873</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -2533,7 +2533,7 @@
         <v>11</v>
       </c>
       <c r="D116" s="1">
-        <v>22.24</v>
+        <v>25.893612296536865</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -2547,7 +2547,7 @@
         <v>11</v>
       </c>
       <c r="D117" s="1">
-        <v>-2.76</v>
+        <v>-2.9196685642577496</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -2575,7 +2575,7 @@
         <v>12</v>
       </c>
       <c r="D119" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0.14180284678133478</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -2589,7 +2589,7 @@
         <v>12</v>
       </c>
       <c r="D120" s="1">
-        <v>45.22</v>
+        <v>86.011037832025451</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -2603,7 +2603,7 @@
         <v>12</v>
       </c>
       <c r="D121" s="1">
-        <v>51.32</v>
+        <v>92.228726703419326</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -2617,7 +2617,7 @@
         <v>12</v>
       </c>
       <c r="D122" s="1">
-        <v>-5.37</v>
+        <v>-9.1120077632954946</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -2631,7 +2631,7 @@
         <v>12</v>
       </c>
       <c r="D123" s="1">
-        <v>3.5</v>
+        <v>5.5813045277423354</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -2645,7 +2645,7 @@
         <v>12</v>
       </c>
       <c r="D124" s="1">
-        <v>-17.64</v>
+        <v>-25.417010173218451</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -2659,7 +2659,7 @@
         <v>12</v>
       </c>
       <c r="D125" s="1">
-        <v>-41.81</v>
+        <v>-56.678958665745327</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -2673,7 +2673,7 @@
         <v>12</v>
       </c>
       <c r="D126" s="1">
-        <v>17.7</v>
+        <v>23.307703713647616</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -2687,7 +2687,7 @@
         <v>12</v>
       </c>
       <c r="D127" s="1">
-        <v>-54.2</v>
+        <v>-68.794845714532173</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -2701,7 +2701,7 @@
         <v>12</v>
       </c>
       <c r="D128" s="1">
-        <v>10.71</v>
+        <v>13.032752953338655</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -2715,7 +2715,7 @@
         <v>12</v>
       </c>
       <c r="D129" s="1">
-        <v>-55.86</v>
+        <v>-65.036743834736939</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -2729,7 +2729,7 @@
         <v>12</v>
       </c>
       <c r="D130" s="1">
-        <v>-27.55</v>
+        <v>-29.143793096123556</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -2743,7 +2743,7 @@
         <v>12</v>
       </c>
       <c r="D131" s="1">
-        <v>29.3</v>
+        <v>29.299999999999997</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -2757,7 +2757,7 @@
         <v>12</v>
       </c>
       <c r="D132" s="1">
-        <v>-3.78</v>
+        <v>-7.6573537261920777</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -2771,7 +2771,7 @@
         <v>12</v>
       </c>
       <c r="D133" s="1">
-        <v>-2.34</v>
+        <v>-4.4508144300517376</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -2785,7 +2785,7 @@
         <v>12</v>
       </c>
       <c r="D134" s="1">
-        <v>-0.93</v>
+        <v>-1.6713311736979732</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -2799,7 +2799,7 @@
         <v>12</v>
       </c>
       <c r="D135" s="1">
-        <v>0.75</v>
+        <v>1.2726267825831696</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -2813,7 +2813,7 @@
         <v>12</v>
       </c>
       <c r="D136" s="1">
-        <v>1.31</v>
+        <v>2.0890025518121313</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -2827,7 +2827,7 @@
         <v>12</v>
       </c>
       <c r="D137" s="1">
-        <v>-1.64</v>
+        <v>-2.363032691841171</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -2841,7 +2841,7 @@
         <v>12</v>
       </c>
       <c r="D138" s="1">
-        <v>0.64</v>
+        <v>0.86760424649789525</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -2855,7 +2855,7 @@
         <v>12</v>
       </c>
       <c r="D139" s="1">
-        <v>-5.97</v>
+        <v>-7.8614119305353825</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -2869,7 +2869,7 @@
         <v>12</v>
       </c>
       <c r="D140" s="1">
-        <v>-5.22</v>
+        <v>-6.6256290522113996</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -2883,7 +2883,7 @@
         <v>12</v>
       </c>
       <c r="D141" s="1">
-        <v>-3.92</v>
+        <v>-4.7701579437056507</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -2897,7 +2897,7 @@
         <v>12</v>
       </c>
       <c r="D142" s="1">
-        <v>-5.87</v>
+        <v>-6.8343302239510528</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -2911,7 +2911,7 @@
         <v>12</v>
       </c>
       <c r="D143" s="1">
-        <v>-9.48</v>
+        <v>-10.028426807667925</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -2925,7 +2925,7 @@
         <v>12</v>
       </c>
       <c r="D144" s="1">
-        <v>-14.43</v>
+        <v>-14.429999999999998</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -2939,7 +2939,7 @@
         <v>12</v>
       </c>
       <c r="D145" s="1">
-        <v>6.09</v>
+        <v>12.336847669976125</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -2953,7 +2953,7 @@
         <v>12</v>
       </c>
       <c r="D146" s="1">
-        <v>-1.49</v>
+        <v>-2.8340655986226873</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -2967,7 +2967,7 @@
         <v>12</v>
       </c>
       <c r="D147" s="1">
-        <v>1.99</v>
+        <v>3.5762892856548025</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -2995,7 +2995,7 @@
         <v>12</v>
       </c>
       <c r="D149" s="1">
-        <v>17.239999999999998</v>
+        <v>27.491911445222243</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -3009,7 +3009,7 @@
         <v>12</v>
       </c>
       <c r="D150" s="1">
-        <v>0.08</v>
+        <v>0.11526988740688641</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -3023,7 +3023,7 @@
         <v>12</v>
       </c>
       <c r="D151" s="1">
-        <v>3.9</v>
+        <v>5.2869633770965496</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -3037,7 +3037,7 @@
         <v>12</v>
       </c>
       <c r="D152" s="1">
-        <v>26.07</v>
+        <v>34.329482249423357</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -3065,7 +3065,7 @@
         <v>12</v>
       </c>
       <c r="D154" s="1">
-        <v>-18.13</v>
+        <v>-22.061980489638632</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -3079,7 +3079,7 @@
         <v>12</v>
       </c>
       <c r="D155" s="1">
-        <v>-6.3</v>
+        <v>-7.3349711091808576</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -3093,7 +3093,7 @@
         <v>12</v>
       </c>
       <c r="D156" s="1">
-        <v>180.96</v>
+        <v>191.4287041261168</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -3111,9 +3111,6 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M14">
-    <sortCondition ref="A2:A14"/>
-  </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>